--- a/data/metadata/Recurrence_data.xlsx
+++ b/data/metadata/Recurrence_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanleyb/Dropbox (The Francis Crick)/HoLSTF_Breast/Article_data/Supplementary_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanleyb/Documents/GitHub/VAULT_Breast/data/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61824AE-E656-3049-91D5-5281BB096322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA82349-0BD1-1D4B-BD36-2AD7F8BC15B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="-7340" windowWidth="51200" windowHeight="26620" xr2:uid="{CE614F2A-846E-D046-A9CB-F6E7F8F047FB}"/>
+    <workbookView xWindow="-51200" yWindow="-7340" windowWidth="25600" windowHeight="28300" xr2:uid="{CE614F2A-846E-D046-A9CB-F6E7F8F047FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="58">
   <si>
     <t>Previous Breast Cancer Side</t>
   </si>
@@ -59,12 +59,6 @@
     <t>Trial ID</t>
   </si>
   <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>#### this is a summary of the pathological and clinical features used to distinguish between recurrent tumorus and new primaries. It includes all patients with history of a previous breast cancer</t>
-  </si>
-  <si>
     <t>HF004</t>
   </si>
   <si>
@@ -213,6 +207,9 @@
   </si>
   <si>
     <t>Decision</t>
+  </si>
+  <si>
+    <t>Context</t>
   </si>
 </sst>
 </file>
@@ -519,22 +516,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -558,10 +545,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -573,9 +557,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -587,6 +568,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -606,9 +596,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -646,7 +636,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -752,7 +742,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -894,7 +884,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -902,10 +892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{327BD925-76FB-1544-A546-08D3731486D3}">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -923,599 +913,586 @@
     <col min="16" max="16" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8">
+        <v>2017</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="9">
+        <v>3</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="9">
+        <v>34</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="11">
+        <v>2018</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="9">
+        <v>3</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="6" t="s">
-        <v>58</v>
+      <c r="B4" s="8">
+        <v>2014</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="9">
+        <v>2</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="9">
+        <v>35</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="11">
+        <v>2018</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="9">
+        <v>2</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="A5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="9">
+        <v>2016</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M5" s="2" t="s">
+      <c r="D5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="9">
         <v>3</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O5" s="3" t="s">
+      <c r="F5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="9">
+        <v>60</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="11">
+        <v>2018</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="10" t="s">
-        <v>34</v>
+      <c r="K5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="9">
+        <v>3</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="12">
-        <v>2017</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="13">
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8">
+        <v>2014</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="9">
         <v>3</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="13">
-        <v>34</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="15">
-        <v>2018</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N6" s="13">
-        <v>3</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="P6" s="17" t="s">
-        <v>35</v>
+      <c r="F6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="8">
+        <v>44</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="11">
+        <v>2019</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="9">
+        <v>2</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="12">
-        <v>2014</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="13">
-        <v>2</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="13">
-        <v>35</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="15">
-        <v>2018</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="13" t="s">
+      <c r="A7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="8">
+        <v>2007</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L7" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="N7" s="13">
-        <v>2</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="P7" s="17" t="s">
-        <v>35</v>
+      <c r="E7" s="9">
+        <v>3</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="9">
+        <v>15</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="11">
+        <v>2019</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="9">
+        <v>3</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="13">
-        <v>2016</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="13" t="s">
+      <c r="A8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="8">
+        <v>2015</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="9">
+        <v>2</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="9">
+        <v>20</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="11">
+        <v>2019</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="9">
+        <v>2</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8" s="13" t="s">
         <v>43</v>
-      </c>
-      <c r="E8" s="13">
-        <v>3</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="13">
-        <v>60</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="15">
-        <v>2018</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="N8" s="13">
-        <v>3</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="P8" s="17" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="12">
-        <v>2014</v>
-      </c>
-      <c r="C9" s="13" t="s">
+      <c r="A9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="8">
+        <v>2015</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="9">
+        <v>3</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="8">
+        <v>28</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="11">
+        <v>2019</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="13">
-        <v>3</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="18">
-        <v>44</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="15">
-        <v>2019</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="M9" s="18" t="s">
+      <c r="L9" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" s="9">
+        <v>2</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="P9" s="13" t="s">
         <v>43</v>
-      </c>
-      <c r="N9" s="13">
-        <v>2</v>
-      </c>
-      <c r="O9" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="P9" s="17" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="12">
-        <v>2007</v>
-      </c>
-      <c r="C10" s="13" t="s">
+      <c r="A10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="8">
+        <v>2009</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="9">
+        <v>3</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="13">
+      <c r="G10" s="8">
+        <v>10</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="11">
+        <v>2019</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" s="9">
         <v>3</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="13">
-        <v>15</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="15">
-        <v>2019</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="M10" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="N10" s="13">
-        <v>3</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="P10" s="17" t="s">
-        <v>45</v>
+      <c r="O10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="12">
-        <v>2015</v>
-      </c>
-      <c r="C11" s="13" t="s">
+      <c r="A11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="8">
+        <v>2012</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="11">
+        <v>2020</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="9">
+        <v>2</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="P11" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="16">
+        <v>2011</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="17">
+        <v>3</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="16">
+        <v>10</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="19">
+        <v>2020</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="13">
-        <v>2</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="13">
-        <v>20</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="15">
-        <v>2019</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="M11" s="18" t="s">
+      <c r="M12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="17">
+        <v>3</v>
+      </c>
+      <c r="O12" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="P12" s="21" t="s">
         <v>33</v>
-      </c>
-      <c r="N11" s="13">
-        <v>2</v>
-      </c>
-      <c r="O11" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="P11" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="12">
-        <v>2015</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="13">
-        <v>3</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="18">
-        <v>28</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="15">
-        <v>2019</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="K12" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="M12" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="N12" s="13">
-        <v>2</v>
-      </c>
-      <c r="O12" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="P12" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="18">
-        <v>2009</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="13">
-        <v>3</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="18">
-        <v>10</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="15">
-        <v>2019</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="M13" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="N13" s="13">
-        <v>3</v>
-      </c>
-      <c r="O13" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="P13" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="12">
-        <v>2012</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="15">
-        <v>2020</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="M14" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="N14" s="13">
-        <v>2</v>
-      </c>
-      <c r="O14" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="P14" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="21">
-        <v>2011</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="22">
-        <v>3</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="23">
-        <v>10</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="25">
-        <v>2020</v>
-      </c>
-      <c r="J15" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="L15" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="M15" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="N15" s="22">
-        <v>3</v>
-      </c>
-      <c r="O15" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="P15" s="27" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="I2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
